--- a/raw_data/20200818_saline/20200818_Sensor0_Test_41.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_41.xlsx
@@ -1,643 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E548EEE-5BC9-4BE7-B83B-6556B301E150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>36002.896997</v>
+        <v>36002.896997000003</v>
       </c>
       <c r="B2" s="1">
         <v>10.000805</v>
       </c>
       <c r="C2" s="1">
-        <v>909.424000</v>
+        <v>909.42399999999998</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.239000</v>
+        <v>-198.239</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>36013.686505</v>
+        <v>36013.686504999998</v>
       </c>
       <c r="G2" s="1">
         <v>10.003802</v>
       </c>
       <c r="H2" s="1">
-        <v>926.657000</v>
+        <v>926.65700000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.796000</v>
+        <v>-167.79599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>36023.945720</v>
+        <v>36023.945720000003</v>
       </c>
       <c r="L2" s="1">
-        <v>10.006652</v>
+        <v>10.006652000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>948.963000</v>
+        <v>948.96299999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.076000</v>
+        <v>-120.07599999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>36034.142511</v>
+        <v>36034.142510999998</v>
       </c>
       <c r="Q2" s="1">
         <v>10.009484</v>
       </c>
       <c r="R2" s="1">
-        <v>955.385000</v>
+        <v>955.38499999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.465000</v>
+        <v>-104.465</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>36044.330334</v>
+        <v>36044.330333999998</v>
       </c>
       <c r="V2" s="1">
         <v>10.012314</v>
       </c>
       <c r="W2" s="1">
-        <v>961.792000</v>
+        <v>961.79200000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.418100</v>
+        <v>-90.418099999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>36054.430833</v>
+        <v>36054.430832999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>10.015120</v>
+        <v>10.01512</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.871000</v>
+        <v>968.87099999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.707600</v>
+        <v>-80.707599999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>36064.674739</v>
+        <v>36064.674739000002</v>
       </c>
       <c r="AF2" s="1">
         <v>10.017965</v>
       </c>
       <c r="AG2" s="1">
-        <v>973.810000</v>
+        <v>973.81</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.201200</v>
+        <v>-80.2012</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>36075.091684</v>
+        <v>36075.091683999999</v>
       </c>
       <c r="AK2" s="1">
         <v>10.020859</v>
       </c>
       <c r="AL2" s="1">
-        <v>981.655000</v>
+        <v>981.65499999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.857700</v>
+        <v>-87.857699999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>36085.351432</v>
+        <v>36085.351432000003</v>
       </c>
       <c r="AP2" s="1">
         <v>10.023709</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.755000</v>
+        <v>990.755</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.798000</v>
+        <v>-102.798</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>36096.735113</v>
+        <v>36096.735113000002</v>
       </c>
       <c r="AU2" s="1">
         <v>10.026871</v>
       </c>
       <c r="AV2" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.453000</v>
+        <v>-124.453</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>36107.857401</v>
+        <v>36107.857401000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.029960</v>
+        <v>10.029960000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1011.580000</v>
+        <v>1011.58</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.283000</v>
+        <v>-143.28299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>36118.746603</v>
@@ -646,377 +1062,377 @@
         <v>10.032985</v>
       </c>
       <c r="BF2" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.900000</v>
+        <v>-228.9</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>36129.836156</v>
+        <v>36129.836155999998</v>
       </c>
       <c r="BJ2" s="1">
         <v>10.036066</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.760000</v>
+        <v>1135.76</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.787000</v>
+        <v>-366.78699999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>36140.969858</v>
+        <v>36140.969857999997</v>
       </c>
       <c r="BO2" s="1">
         <v>10.039158</v>
       </c>
       <c r="BP2" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.723000</v>
+        <v>-580.72299999999996</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>36152.022673</v>
+        <v>36152.022672999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.042229</v>
+        <v>10.042229000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1415.550000</v>
+        <v>1415.55</v>
       </c>
       <c r="BV2" s="1">
-        <v>-809.433000</v>
+        <v>-809.43299999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>36162.778419</v>
+        <v>36162.778419000002</v>
       </c>
       <c r="BY2" s="1">
         <v>10.045216</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1579.430000</v>
+        <v>1579.43</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1049.040000</v>
+        <v>-1049.04</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>36173.728600</v>
+        <v>36173.728600000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.048258</v>
+        <v>10.048258000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1994.640000</v>
+        <v>1994.64</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1608.330000</v>
+        <v>-1608.33</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>36003.720355</v>
+        <v>36003.720354999998</v>
       </c>
       <c r="B3" s="1">
         <v>10.001033</v>
       </c>
       <c r="C3" s="1">
-        <v>909.408000</v>
+        <v>909.40800000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.192000</v>
+        <v>-198.19200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>36014.109557</v>
+        <v>36014.109557000003</v>
       </c>
       <c r="G3" s="1">
         <v>10.003919</v>
       </c>
       <c r="H3" s="1">
-        <v>926.920000</v>
+        <v>926.92</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.241000</v>
+        <v>-168.24100000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>36024.297417</v>
+        <v>36024.297417000002</v>
       </c>
       <c r="L3" s="1">
-        <v>10.006749</v>
+        <v>10.006748999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>948.817000</v>
+        <v>948.81700000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.166000</v>
+        <v>-120.166</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>36034.493173</v>
+        <v>36034.493173000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.009581</v>
+        <v>10.009581000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>955.388000</v>
+        <v>955.38800000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.481000</v>
+        <v>-104.48099999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>36044.710733</v>
       </c>
       <c r="V3" s="1">
-        <v>10.012420</v>
+        <v>10.012420000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>961.838000</v>
+        <v>961.83799999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.486300</v>
+        <v>-90.4863</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>36054.815769</v>
+        <v>36054.815769000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.015227</v>
+        <v>10.015226999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.939000</v>
+        <v>968.93899999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.721000</v>
+        <v>-80.721000000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>36065.088370</v>
+        <v>36065.088369999998</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.018080</v>
+        <v>10.018079999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>973.814000</v>
+        <v>973.81399999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.154800</v>
+        <v>-80.154799999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>36075.201464</v>
+        <v>36075.201463999998</v>
       </c>
       <c r="AK3" s="1">
         <v>10.020889</v>
       </c>
       <c r="AL3" s="1">
-        <v>981.690000</v>
+        <v>981.69</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.879600</v>
+        <v>-87.879599999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>36085.788406</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.023830</v>
+        <v>10.02383</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.763000</v>
+        <v>990.76300000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.805000</v>
+        <v>-102.80500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>36097.122994</v>
+        <v>36097.122993999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.026979</v>
+        <v>10.026979000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.434000</v>
+        <v>-124.434</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>36108.220473</v>
+        <v>36108.220473000001</v>
       </c>
       <c r="AZ3" s="1">
         <v>10.030061</v>
       </c>
       <c r="BA3" s="1">
-        <v>1011.590000</v>
+        <v>1011.59</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.280000</v>
+        <v>-143.28</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>36119.125019</v>
+        <v>36119.125018999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.033090</v>
+        <v>10.03309</v>
       </c>
       <c r="BF3" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.879000</v>
+        <v>-228.87899999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>36130.613087</v>
+        <v>36130.613086999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.036281</v>
+        <v>10.036281000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.790000</v>
+        <v>1135.79</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.817000</v>
+        <v>-366.81700000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>36141.799169</v>
+        <v>36141.799168999998</v>
       </c>
       <c r="BO3" s="1">
         <v>10.039389</v>
       </c>
       <c r="BP3" s="1">
-        <v>1267.470000</v>
+        <v>1267.47</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.745000</v>
+        <v>-580.745</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>36152.477842</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.042355</v>
+        <v>10.042355000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1415.620000</v>
+        <v>1415.62</v>
       </c>
       <c r="BV3" s="1">
-        <v>-809.461000</v>
+        <v>-809.46100000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>36163.241680</v>
+        <v>36163.241679999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.045345</v>
+        <v>10.045344999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1579.300000</v>
+        <v>1579.3</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1048.980000</v>
+        <v>-1048.98</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>36174.324785</v>
+        <v>36174.324784999997</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.048424</v>
+        <v>10.048424000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1992.540000</v>
+        <v>1992.54</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1609.130000</v>
+        <v>-1609.13</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>36004.054693</v>
+        <v>36004.054692999998</v>
       </c>
       <c r="B4" s="1">
-        <v>10.001126</v>
+        <v>10.001125999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>909.391000</v>
+        <v>909.39099999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.055000</v>
+        <v>-198.05500000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>36014.456792</v>
+        <v>36014.456791999997</v>
       </c>
       <c r="G4" s="1">
         <v>10.004016</v>
       </c>
       <c r="H4" s="1">
-        <v>926.680000</v>
+        <v>926.68</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.874000</v>
+        <v>-167.874</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>36024.643096</v>
@@ -1025,255 +1441,255 @@
         <v>10.006845</v>
       </c>
       <c r="M4" s="1">
-        <v>948.847000</v>
+        <v>948.84699999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.038000</v>
+        <v>-120.038</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>36034.843818</v>
+        <v>36034.843818000001</v>
       </c>
       <c r="Q4" s="1">
         <v>10.009679</v>
       </c>
       <c r="R4" s="1">
-        <v>955.415000</v>
+        <v>955.41499999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.464000</v>
+        <v>-104.464</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>36045.133821</v>
+        <v>36045.133821000003</v>
       </c>
       <c r="V4" s="1">
         <v>10.012537</v>
       </c>
       <c r="W4" s="1">
-        <v>961.838000</v>
+        <v>961.83799999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.479800</v>
+        <v>-90.479799999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>36055.239844</v>
+        <v>36055.239844000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.015344</v>
+        <v>10.015344000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>968.942000</v>
+        <v>968.94200000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.760600</v>
+        <v>-80.760599999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>36065.402345</v>
+        <v>36065.402345000002</v>
       </c>
       <c r="AF4" s="1">
         <v>10.018167</v>
       </c>
       <c r="AG4" s="1">
-        <v>973.825000</v>
+        <v>973.82500000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.203700</v>
+        <v>-80.203699999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>36075.544569</v>
+        <v>36075.544568999998</v>
       </c>
       <c r="AK4" s="1">
         <v>10.020985</v>
       </c>
       <c r="AL4" s="1">
-        <v>981.662000</v>
+        <v>981.66200000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.869500</v>
+        <v>-87.869500000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>36086.146518</v>
+        <v>36086.146518000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>10.023930</v>
+        <v>10.02393</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.813000</v>
+        <v>-102.813</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>36097.488076</v>
+        <v>36097.488076000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>10.027080</v>
+        <v>10.02708</v>
       </c>
       <c r="AV4" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.427000</v>
+        <v>-124.42700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>36108.935704</v>
+        <v>36108.935704000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.030260</v>
+        <v>10.03026</v>
       </c>
       <c r="BA4" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.283000</v>
+        <v>-143.28299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>36119.850678</v>
+        <v>36119.850678000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.033292</v>
+        <v>10.033291999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1056.550000</v>
+        <v>1056.55</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.875000</v>
+        <v>-228.875</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>36130.987347</v>
+        <v>36130.987347000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>10.036385</v>
+        <v>10.036384999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.790000</v>
+        <v>1135.79</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.817000</v>
+        <v>-366.81700000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>36142.217756</v>
+        <v>36142.217755999998</v>
       </c>
       <c r="BO4" s="1">
         <v>10.039505</v>
       </c>
       <c r="BP4" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.738000</v>
+        <v>-580.73800000000006</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>36152.913983</v>
+        <v>36152.913982999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>10.042476</v>
+        <v>10.042476000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1415.600000</v>
+        <v>1415.6</v>
       </c>
       <c r="BV4" s="1">
-        <v>-809.490000</v>
+        <v>-809.49</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>36164.006512</v>
       </c>
       <c r="BY4" s="1">
-        <v>10.045557</v>
+        <v>10.045557000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1579.340000</v>
+        <v>1579.34</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1049.230000</v>
+        <v>-1049.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>36175.185345</v>
+        <v>36175.185344999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.048663</v>
+        <v>10.048662999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1994.260000</v>
+        <v>1994.26</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1608.700000</v>
+        <v>-1608.7</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>36004.391940</v>
+        <v>36004.391940000001</v>
       </c>
       <c r="B5" s="1">
-        <v>10.001220</v>
+        <v>10.00122</v>
       </c>
       <c r="C5" s="1">
-        <v>909.373000</v>
+        <v>909.37300000000005</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.085000</v>
+        <v>-198.08500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>36014.799492</v>
+        <v>36014.799491999998</v>
       </c>
       <c r="G5" s="1">
         <v>10.004111</v>
       </c>
       <c r="H5" s="1">
-        <v>926.823000</v>
+        <v>926.82299999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.885000</v>
+        <v>-167.88499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>36025.059771</v>
@@ -1282,784 +1698,784 @@
         <v>10.006961</v>
       </c>
       <c r="M5" s="1">
-        <v>948.890000</v>
+        <v>948.89</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.213000</v>
+        <v>-120.21299999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>36035.263435</v>
+        <v>36035.263435000001</v>
       </c>
       <c r="Q5" s="1">
         <v>10.009795</v>
       </c>
       <c r="R5" s="1">
-        <v>955.417000</v>
+        <v>955.41700000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.438000</v>
+        <v>-104.438</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>36045.397693</v>
+        <v>36045.397692999999</v>
       </c>
       <c r="V5" s="1">
-        <v>10.012610</v>
+        <v>10.01261</v>
       </c>
       <c r="W5" s="1">
-        <v>961.766000</v>
+        <v>961.76599999999996</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.490300</v>
+        <v>-90.490300000000005</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>36055.536446</v>
+        <v>36055.536445999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.015427</v>
+        <v>10.015427000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>969.001000</v>
+        <v>969.00099999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.742800</v>
+        <v>-80.742800000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>36065.744081</v>
+        <v>36065.744080999997</v>
       </c>
       <c r="AF5" s="1">
         <v>10.018262</v>
       </c>
       <c r="AG5" s="1">
-        <v>973.830000</v>
+        <v>973.83</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.166800</v>
+        <v>-80.166799999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>36075.891767</v>
+        <v>36075.891767000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.021081</v>
+        <v>10.021081000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>981.681000</v>
+        <v>981.68100000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.846600</v>
+        <v>-87.846599999999995</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>36086.509095</v>
+        <v>36086.509095000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.024030</v>
+        <v>10.02403</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.768000</v>
+        <v>990.76800000000003</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.810000</v>
+        <v>-102.81</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>36098.219173</v>
+        <v>36098.219172999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.027283</v>
+        <v>10.027283000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.435000</v>
+        <v>-124.435</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>36109.294312</v>
+        <v>36109.294311999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.030360</v>
+        <v>10.03036</v>
       </c>
       <c r="BA5" s="1">
-        <v>1011.610000</v>
+        <v>1011.61</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.295000</v>
+        <v>-143.29499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>36120.230148</v>
+        <v>36120.230148000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.033397</v>
+        <v>10.033397000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.880000</v>
+        <v>-228.88</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>36131.387610</v>
+        <v>36131.387609999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.036497</v>
+        <v>10.036497000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.820000</v>
+        <v>-366.82</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>36142.914176</v>
+        <v>36142.914175999998</v>
       </c>
       <c r="BO5" s="1">
         <v>10.039698</v>
       </c>
       <c r="BP5" s="1">
-        <v>1267.440000</v>
+        <v>1267.44</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.728000</v>
+        <v>-580.72799999999995</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>36153.631694</v>
+        <v>36153.631694000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.042675</v>
+        <v>10.042674999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1415.710000</v>
+        <v>1415.71</v>
       </c>
       <c r="BV5" s="1">
-        <v>-809.481000</v>
+        <v>-809.48099999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>36164.120095</v>
+        <v>36164.120094999998</v>
       </c>
       <c r="BY5" s="1">
         <v>10.045589</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1579.380000</v>
+        <v>1579.38</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>36175.404080</v>
+        <v>36175.40408</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.048723</v>
+        <v>10.048723000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>1994.290000</v>
+        <v>1994.29</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1608.780000</v>
+        <v>-1608.78</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>36004.805602</v>
       </c>
       <c r="B6" s="1">
-        <v>10.001335</v>
+        <v>10.001334999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>909.477000</v>
+        <v>909.47699999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.951000</v>
+        <v>-197.95099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>36015.226053</v>
+        <v>36015.226052999999</v>
       </c>
       <c r="G6" s="1">
         <v>10.004229</v>
       </c>
       <c r="H6" s="1">
-        <v>926.533000</v>
+        <v>926.53300000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.111000</v>
+        <v>-168.11099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>36025.336038</v>
+        <v>36025.336038000001</v>
       </c>
       <c r="L6" s="1">
         <v>10.007038</v>
       </c>
       <c r="M6" s="1">
-        <v>948.873000</v>
+        <v>948.87300000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.981000</v>
+        <v>-119.98099999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>36035.542681</v>
+        <v>36035.542680999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>10.009873</v>
+        <v>10.009873000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>955.418000</v>
+        <v>955.41800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.489000</v>
+        <v>-104.489</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>36045.738472</v>
+        <v>36045.738471999997</v>
       </c>
       <c r="V6" s="1">
         <v>10.012705</v>
       </c>
       <c r="W6" s="1">
-        <v>961.767000</v>
+        <v>961.76700000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.484500</v>
+        <v>-90.484499999999997</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>36055.884606</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.015524</v>
+        <v>10.015523999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.864000</v>
+        <v>968.86400000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.691600</v>
+        <v>-80.691599999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>36066.089793</v>
+        <v>36066.089792999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>10.018358</v>
+        <v>10.018357999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>973.823000</v>
+        <v>973.82299999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.196000</v>
+        <v>-80.195999999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>36076.589139</v>
+        <v>36076.589139000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>10.021275</v>
+        <v>10.021274999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>981.692000</v>
+        <v>981.69200000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.868300</v>
+        <v>-87.868300000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>36087.226310</v>
+        <v>36087.226309999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>10.024230</v>
+        <v>10.024229999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.740000</v>
+        <v>990.74</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.821000</v>
+        <v>-102.821</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>36098.610021</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.027392</v>
+        <v>10.027392000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.435000</v>
+        <v>-124.435</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>36109.655400</v>
+        <v>36109.655400000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.030460</v>
+        <v>10.03046</v>
       </c>
       <c r="BA6" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.292000</v>
+        <v>-143.292</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>36120.592712</v>
+        <v>36120.592711999998</v>
       </c>
       <c r="BE6" s="1">
         <v>10.033498</v>
       </c>
       <c r="BF6" s="1">
-        <v>1056.580000</v>
+        <v>1056.58</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.886000</v>
+        <v>-228.886</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>36132.063020</v>
+        <v>36132.063020000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.036684</v>
+        <v>10.036683999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.812000</v>
+        <v>-366.81200000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>36143.035164</v>
+        <v>36143.035164000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>10.039732</v>
+        <v>10.039732000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1267.450000</v>
+        <v>1267.45</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.745000</v>
+        <v>-580.745</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>36153.755692</v>
+        <v>36153.755691999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.042710</v>
+        <v>10.04271</v>
       </c>
       <c r="BU6" s="1">
-        <v>1415.640000</v>
+        <v>1415.64</v>
       </c>
       <c r="BV6" s="1">
-        <v>-809.461000</v>
+        <v>-809.46100000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>36164.561071</v>
+        <v>36164.561070999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.045711</v>
+        <v>10.045711000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1579.350000</v>
+        <v>1579.35</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1049.190000</v>
+        <v>-1049.19</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>36175.922437</v>
+        <v>36175.922437000001</v>
       </c>
       <c r="CD6" s="1">
         <v>10.048867</v>
       </c>
       <c r="CE6" s="1">
-        <v>1992.720000</v>
+        <v>1992.72</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1608.770000</v>
+        <v>-1608.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>36005.095265</v>
+        <v>36005.095265000004</v>
       </c>
       <c r="B7" s="1">
         <v>10.001415</v>
       </c>
       <c r="C7" s="1">
-        <v>909.266000</v>
+        <v>909.26599999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.099000</v>
+        <v>-198.09899999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>36015.496899</v>
+        <v>36015.496898999998</v>
       </c>
       <c r="G7" s="1">
         <v>10.004305</v>
       </c>
       <c r="H7" s="1">
-        <v>926.675000</v>
+        <v>926.67499999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.047000</v>
+        <v>-168.047</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>36025.679270</v>
+        <v>36025.679270000001</v>
       </c>
       <c r="L7" s="1">
         <v>10.007133</v>
       </c>
       <c r="M7" s="1">
-        <v>948.995000</v>
+        <v>948.995</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.047000</v>
+        <v>-120.047</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>36035.890377</v>
+        <v>36035.890377000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.009970</v>
+        <v>10.009969999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>955.421000</v>
+        <v>955.42100000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.490000</v>
+        <v>-104.49</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>36046.081676</v>
+        <v>36046.081676000002</v>
       </c>
       <c r="V7" s="1">
-        <v>10.012800</v>
+        <v>10.0128</v>
       </c>
       <c r="W7" s="1">
-        <v>961.817000</v>
+        <v>961.81700000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.467600</v>
+        <v>-90.467600000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>36056.580493</v>
+        <v>36056.580493000001</v>
       </c>
       <c r="AA7" s="1">
         <v>10.015717</v>
       </c>
       <c r="AB7" s="1">
-        <v>968.848000</v>
+        <v>968.84799999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.752000</v>
+        <v>-80.751999999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>36066.773281</v>
+        <v>36066.773281000002</v>
       </c>
       <c r="AF7" s="1">
-        <v>10.018548</v>
+        <v>10.018547999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>973.818000</v>
+        <v>973.81799999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.172700</v>
+        <v>-80.172700000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>36076.939314</v>
+        <v>36076.939314000003</v>
       </c>
       <c r="AK7" s="1">
         <v>10.021372</v>
       </c>
       <c r="AL7" s="1">
-        <v>981.666000</v>
+        <v>981.66600000000005</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.860100</v>
+        <v>-87.860100000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>36087.587397</v>
+        <v>36087.587397000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>10.024330</v>
+        <v>10.024330000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.755000</v>
+        <v>990.755</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.802000</v>
+        <v>-102.80200000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>36098.973557</v>
+        <v>36098.973556999998</v>
       </c>
       <c r="AU7" s="1">
         <v>10.027493</v>
       </c>
       <c r="AV7" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.441000</v>
+        <v>-124.441</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>36110.325030</v>
+        <v>36110.32503</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.030646</v>
+        <v>10.030646000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.300000</v>
+        <v>-143.30000000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>36121.262311</v>
+        <v>36121.262310999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.033684</v>
+        <v>10.033683999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.882000</v>
+        <v>-228.88200000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>36132.551722</v>
+        <v>36132.551721999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.036820</v>
+        <v>10.036820000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.770000</v>
+        <v>1135.77</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.834000</v>
+        <v>-366.834</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>36143.460762</v>
+        <v>36143.460762000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>10.039850</v>
+        <v>10.039849999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.741000</v>
+        <v>-580.74099999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>36154.196140</v>
+        <v>36154.19614</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.042832</v>
+        <v>10.042832000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1415.630000</v>
+        <v>1415.63</v>
       </c>
       <c r="BV7" s="1">
-        <v>-809.368000</v>
+        <v>-809.36800000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>36164.982143</v>
+        <v>36164.982143000001</v>
       </c>
       <c r="BY7" s="1">
         <v>10.045828</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1579.370000</v>
+        <v>1579.37</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1049.060000</v>
+        <v>-1049.06</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>36176.441227</v>
+        <v>36176.441227000003</v>
       </c>
       <c r="CD7" s="1">
         <v>10.049011</v>
       </c>
       <c r="CE7" s="1">
-        <v>1993.000000</v>
+        <v>1993</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1610.510000</v>
+        <v>-1610.51</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>36005.437506</v>
+        <v>36005.437506000002</v>
       </c>
       <c r="B8" s="1">
-        <v>10.001510</v>
+        <v>10.00151</v>
       </c>
       <c r="C8" s="1">
-        <v>909.344000</v>
+        <v>909.34400000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.074000</v>
+        <v>-198.07400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>36015.840595</v>
+        <v>36015.840595000001</v>
       </c>
       <c r="G8" s="1">
-        <v>10.004400</v>
+        <v>10.0044</v>
       </c>
       <c r="H8" s="1">
-        <v>926.580000</v>
+        <v>926.58</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.439000</v>
+        <v>-167.43899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>36026.026973</v>
       </c>
       <c r="L8" s="1">
-        <v>10.007230</v>
+        <v>10.00723</v>
       </c>
       <c r="M8" s="1">
-        <v>948.833000</v>
+        <v>948.83299999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.812000</v>
+        <v>-119.812</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>36036.238178</v>
@@ -2068,375 +2484,375 @@
         <v>10.010066</v>
       </c>
       <c r="R8" s="1">
-        <v>955.387000</v>
+        <v>955.38699999999994</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.467000</v>
+        <v>-104.467</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>36046.769665</v>
       </c>
       <c r="V8" s="1">
-        <v>10.012992</v>
+        <v>10.012992000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>961.828000</v>
+        <v>961.82799999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.487800</v>
+        <v>-90.487799999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>36056.928218</v>
+        <v>36056.928218000001</v>
       </c>
       <c r="AA8" s="1">
         <v>10.015813</v>
       </c>
       <c r="AB8" s="1">
-        <v>968.941000</v>
+        <v>968.94100000000003</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.838000</v>
+        <v>-80.837999999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>36067.117537</v>
+        <v>36067.117536999998</v>
       </c>
       <c r="AF8" s="1">
         <v>10.018644</v>
       </c>
       <c r="AG8" s="1">
-        <v>973.805000</v>
+        <v>973.80499999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.156800</v>
+        <v>-80.156800000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>36077.287488</v>
+        <v>36077.287488000002</v>
       </c>
       <c r="AK8" s="1">
         <v>10.021469</v>
       </c>
       <c r="AL8" s="1">
-        <v>981.660000</v>
+        <v>981.66</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.871800</v>
+        <v>-87.871799999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>36087.949973</v>
+        <v>36087.949973000003</v>
       </c>
       <c r="AP8" s="1">
         <v>10.024431</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.781000</v>
+        <v>990.78099999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.807000</v>
+        <v>-102.807</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>36099.654068</v>
+        <v>36099.654068000003</v>
       </c>
       <c r="AU8" s="1">
         <v>10.027682</v>
       </c>
       <c r="AV8" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.438000</v>
+        <v>-124.438</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>36110.760983</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.030767</v>
+        <v>10.030767000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1011.610000</v>
+        <v>1011.61</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.284000</v>
+        <v>-143.28399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>36121.706695</v>
+        <v>36121.706695000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.033807</v>
+        <v>10.033806999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.902000</v>
+        <v>-228.90199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>36132.925706</v>
+        <v>36132.925706000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.036924</v>
+        <v>10.036924000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.760000</v>
+        <v>1135.76</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.795000</v>
+        <v>-366.79500000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>36143.857530</v>
+        <v>36143.857530000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.039960</v>
+        <v>10.039960000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1267.400000</v>
+        <v>1267.4000000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.780000</v>
+        <v>-580.78</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>36154.618768</v>
       </c>
       <c r="BT8" s="1">
-        <v>10.042950</v>
+        <v>10.042949999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1415.730000</v>
+        <v>1415.73</v>
       </c>
       <c r="BV8" s="1">
-        <v>-809.520000</v>
+        <v>-809.52</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>36165.405261</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.045946</v>
+        <v>10.045946000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1579.440000</v>
+        <v>1579.44</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1049.120000</v>
+        <v>-1049.1199999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>36176.960071</v>
+        <v>36176.960071000001</v>
       </c>
       <c r="CD8" s="1">
         <v>10.049156</v>
       </c>
       <c r="CE8" s="1">
-        <v>1994.560000</v>
+        <v>1994.56</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1610.030000</v>
+        <v>-1610.03</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>36005.777762</v>
+        <v>36005.777761999998</v>
       </c>
       <c r="B9" s="1">
         <v>10.001605</v>
       </c>
       <c r="C9" s="1">
-        <v>909.626000</v>
+        <v>909.62599999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.105000</v>
+        <v>-198.10499999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>36016.185842</v>
+        <v>36016.185841999999</v>
       </c>
       <c r="G9" s="1">
         <v>10.004496</v>
       </c>
       <c r="H9" s="1">
-        <v>926.358000</v>
+        <v>926.35799999999995</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.615000</v>
+        <v>-167.61500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>36026.722599</v>
+        <v>36026.722599000001</v>
       </c>
       <c r="L9" s="1">
-        <v>10.007423</v>
+        <v>10.007422999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>949.013000</v>
+        <v>949.01300000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.986000</v>
+        <v>-119.986</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>36036.940904</v>
+        <v>36036.940904000003</v>
       </c>
       <c r="Q9" s="1">
         <v>10.010261</v>
       </c>
       <c r="R9" s="1">
-        <v>955.408000</v>
+        <v>955.40800000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.446000</v>
+        <v>-104.446</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>36047.112859</v>
+        <v>36047.112859000001</v>
       </c>
       <c r="V9" s="1">
-        <v>10.013087</v>
+        <v>10.013087000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>961.719000</v>
+        <v>961.71900000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.478700</v>
+        <v>-90.478700000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>36057.278364</v>
+        <v>36057.278363999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.015911</v>
+        <v>10.015910999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>968.849000</v>
+        <v>968.84900000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.756700</v>
+        <v>-80.756699999999995</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>36067.468210</v>
+        <v>36067.468209999999</v>
       </c>
       <c r="AF9" s="1">
         <v>10.018741</v>
       </c>
       <c r="AG9" s="1">
-        <v>973.836000</v>
+        <v>973.83600000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.151200</v>
+        <v>-80.151200000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>36077.942719</v>
+        <v>36077.942718999999</v>
       </c>
       <c r="AK9" s="1">
         <v>10.021651</v>
       </c>
       <c r="AL9" s="1">
-        <v>981.661000</v>
+        <v>981.66099999999994</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.862200</v>
+        <v>-87.862200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>36088.626515</v>
+        <v>36088.626515000004</v>
       </c>
       <c r="AP9" s="1">
         <v>10.024618</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.761000</v>
+        <v>990.76099999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.804000</v>
+        <v>-102.804</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>36100.069716</v>
+        <v>36100.069715999998</v>
       </c>
       <c r="AU9" s="1">
         <v>10.027797</v>
       </c>
       <c r="AV9" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.439000</v>
+        <v>-124.43899999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>36111.122070</v>
+        <v>36111.122069999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.030867</v>
+        <v>10.030867000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.293000</v>
+        <v>-143.29300000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>36122.068776</v>
@@ -2445,1101 +2861,1101 @@
         <v>10.033908</v>
       </c>
       <c r="BF9" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.874000</v>
+        <v>-228.874</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>36133.305640</v>
+        <v>36133.305639999999</v>
       </c>
       <c r="BJ9" s="1">
         <v>10.037029</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.770000</v>
+        <v>1135.77</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.807000</v>
+        <v>-366.80700000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>36144.281148</v>
+        <v>36144.281148000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>10.040078</v>
+        <v>10.040077999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1267.450000</v>
+        <v>1267.45</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.733000</v>
+        <v>-580.73299999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>36155.034417</v>
+        <v>36155.034417000003</v>
       </c>
       <c r="BT9" s="1">
         <v>10.043065</v>
       </c>
       <c r="BU9" s="1">
-        <v>1415.720000</v>
+        <v>1415.72</v>
       </c>
       <c r="BV9" s="1">
-        <v>-809.506000</v>
+        <v>-809.50599999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>36165.831789</v>
+        <v>36165.831789000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.046064</v>
+        <v>10.046063999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1579.250000</v>
+        <v>1579.25</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>36177.475673</v>
+        <v>36177.475673000001</v>
       </c>
       <c r="CD9" s="1">
         <v>10.049299</v>
       </c>
       <c r="CE9" s="1">
-        <v>1993.960000</v>
+        <v>1993.96</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1610.340000</v>
+        <v>-1610.34</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>36006.460752</v>
+        <v>36006.460751999999</v>
       </c>
       <c r="B10" s="1">
         <v>10.001795</v>
       </c>
       <c r="C10" s="1">
-        <v>909.505000</v>
+        <v>909.505</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.077000</v>
+        <v>-198.077</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>36016.878760</v>
+        <v>36016.87876</v>
       </c>
       <c r="G10" s="1">
-        <v>10.004689</v>
+        <v>10.004689000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>926.855000</v>
+        <v>926.85500000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-167.841000</v>
+        <v>-167.84100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>36027.066052</v>
+        <v>36027.066052000002</v>
       </c>
       <c r="L10" s="1">
-        <v>10.007518</v>
+        <v>10.007517999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>948.982000</v>
+        <v>948.98199999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.998000</v>
+        <v>-119.998</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>36037.285624</v>
+        <v>36037.285623999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.010357</v>
+        <v>10.010357000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>955.379000</v>
+        <v>955.37900000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.458000</v>
+        <v>-104.458</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>36047.461081</v>
+        <v>36047.461081000001</v>
       </c>
       <c r="V10" s="1">
-        <v>10.013184</v>
+        <v>10.013184000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>961.837000</v>
+        <v>961.83699999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.489600</v>
+        <v>-90.489599999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>36057.946012</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.016096</v>
+        <v>10.016095999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>968.917000</v>
+        <v>968.91700000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.728900</v>
+        <v>-80.728899999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>36068.116482</v>
+        <v>36068.116481999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.018921</v>
+        <v>10.018921000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>973.828000</v>
+        <v>973.82799999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.174100</v>
+        <v>-80.174099999999996</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>36078.331088</v>
+        <v>36078.331087999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>10.021759</v>
+        <v>10.021758999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>981.661000</v>
+        <v>981.66099999999994</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.896100</v>
+        <v>-87.896100000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>36089.054564</v>
+        <v>36089.054563999998</v>
       </c>
       <c r="AP10" s="1">
         <v>10.024737</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.764000</v>
+        <v>990.76400000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.823000</v>
+        <v>-102.82299999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>36100.435268</v>
+        <v>36100.435268000001</v>
       </c>
       <c r="AU10" s="1">
         <v>10.027899</v>
       </c>
       <c r="AV10" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.433000</v>
+        <v>-124.43300000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>36111.481685</v>
+        <v>36111.481684999999</v>
       </c>
       <c r="AZ10" s="1">
         <v>10.030967</v>
       </c>
       <c r="BA10" s="1">
-        <v>1011.620000</v>
+        <v>1011.62</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.302000</v>
+        <v>-143.30199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>36122.430647</v>
+        <v>36122.430647000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>10.034009</v>
+        <v>10.034008999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1056.580000</v>
+        <v>1056.58</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.890000</v>
+        <v>-228.89</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>36133.729522</v>
+        <v>36133.729522000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>10.037147</v>
+        <v>10.037146999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.730000</v>
+        <v>1135.73</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.844000</v>
+        <v>-366.84399999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>36144.673450</v>
+        <v>36144.673450000002</v>
       </c>
       <c r="BO10" s="1">
         <v>10.040187</v>
       </c>
       <c r="BP10" s="1">
-        <v>1267.410000</v>
+        <v>1267.4100000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.737000</v>
+        <v>-580.73699999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>36155.462923</v>
+        <v>36155.462922999999</v>
       </c>
       <c r="BT10" s="1">
         <v>10.043184</v>
       </c>
       <c r="BU10" s="1">
-        <v>1415.690000</v>
+        <v>1415.69</v>
       </c>
       <c r="BV10" s="1">
-        <v>-809.563000</v>
+        <v>-809.56299999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>36166.246940</v>
+        <v>36166.246939999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.046180</v>
+        <v>10.04618</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1579.490000</v>
+        <v>1579.49</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1049.180000</v>
+        <v>-1049.18</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>36178.031885</v>
+        <v>36178.031884999997</v>
       </c>
       <c r="CD10" s="1">
         <v>10.049453</v>
       </c>
       <c r="CE10" s="1">
-        <v>1992.600000</v>
+        <v>1992.6</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1610.300000</v>
+        <v>-1610.3</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>36006.805471</v>
       </c>
       <c r="B11" s="1">
-        <v>10.001890</v>
+        <v>10.00189</v>
       </c>
       <c r="C11" s="1">
-        <v>909.444000</v>
+        <v>909.44399999999996</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.114000</v>
+        <v>-198.114</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>36017.225427</v>
+        <v>36017.225426999998</v>
       </c>
       <c r="G11" s="1">
         <v>10.004785</v>
       </c>
       <c r="H11" s="1">
-        <v>926.742000</v>
+        <v>926.74199999999996</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.010000</v>
+        <v>-168.01</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>36027.414244</v>
       </c>
       <c r="L11" s="1">
-        <v>10.007615</v>
+        <v>10.007614999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>948.761000</v>
+        <v>948.76099999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.830000</v>
+        <v>-119.83</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>36037.631860</v>
+        <v>36037.631860000001</v>
       </c>
       <c r="Q11" s="1">
         <v>10.010453</v>
       </c>
       <c r="R11" s="1">
-        <v>955.441000</v>
+        <v>955.44100000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.445000</v>
+        <v>-104.44499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>36048.114282</v>
+        <v>36048.114282000002</v>
       </c>
       <c r="V11" s="1">
         <v>10.013365</v>
       </c>
       <c r="W11" s="1">
-        <v>961.757000</v>
+        <v>961.75699999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.473600</v>
+        <v>-90.473600000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>36058.324923</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.016201</v>
+        <v>10.016201000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>968.889000</v>
+        <v>968.88900000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.764700</v>
+        <v>-80.764700000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>36068.497871</v>
       </c>
       <c r="AF11" s="1">
-        <v>10.019027</v>
+        <v>10.019026999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>973.830000</v>
+        <v>973.83</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.172200</v>
+        <v>-80.172200000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>36078.680240</v>
+        <v>36078.680240000002</v>
       </c>
       <c r="AK11" s="1">
         <v>10.021856</v>
       </c>
       <c r="AL11" s="1">
-        <v>981.653000</v>
+        <v>981.65300000000002</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.883100</v>
+        <v>-87.883099999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>36089.412674</v>
+        <v>36089.412673999999</v>
       </c>
       <c r="AP11" s="1">
         <v>10.024837</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.769000</v>
+        <v>990.76900000000001</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.806000</v>
+        <v>-102.806</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>36100.798339</v>
+        <v>36100.798339000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.028000</v>
+        <v>10.028</v>
       </c>
       <c r="AV11" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.420000</v>
+        <v>-124.42</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>36111.891364</v>
+        <v>36111.891364000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>10.031081</v>
       </c>
       <c r="BA11" s="1">
-        <v>1011.610000</v>
+        <v>1011.61</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.291000</v>
+        <v>-143.291</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>36122.857911</v>
+        <v>36122.857910999999</v>
       </c>
       <c r="BE11" s="1">
         <v>10.034127</v>
       </c>
       <c r="BF11" s="1">
-        <v>1056.580000</v>
+        <v>1056.58</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.881000</v>
+        <v>-228.881</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>36134.074439</v>
+        <v>36134.074439000004</v>
       </c>
       <c r="BJ11" s="1">
         <v>10.037243</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.803000</v>
+        <v>-366.803</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>36145.097032</v>
+        <v>36145.097031999998</v>
       </c>
       <c r="BO11" s="1">
         <v>10.040305</v>
       </c>
       <c r="BP11" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.736000</v>
+        <v>-580.73599999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>36155.891467</v>
+        <v>36155.891467000001</v>
       </c>
       <c r="BT11" s="1">
         <v>10.043303</v>
       </c>
       <c r="BU11" s="1">
-        <v>1415.740000</v>
+        <v>1415.74</v>
       </c>
       <c r="BV11" s="1">
-        <v>-809.433000</v>
+        <v>-809.43299999999999</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>36166.694364</v>
+        <v>36166.694364000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.046304</v>
+        <v>10.046303999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1579.370000</v>
+        <v>1579.37</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1049.210000</v>
+        <v>-1049.21</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>36178.558845</v>
       </c>
       <c r="CD11" s="1">
-        <v>10.049600</v>
+        <v>10.0496</v>
       </c>
       <c r="CE11" s="1">
-        <v>1994.110000</v>
+        <v>1994.11</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1610.380000</v>
+        <v>-1610.38</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>36007.144735</v>
+        <v>36007.144735000002</v>
       </c>
       <c r="B12" s="1">
-        <v>10.001985</v>
+        <v>10.001984999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>909.301000</v>
+        <v>909.30100000000004</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.011000</v>
+        <v>-198.011</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>36017.568658</v>
+        <v>36017.568657999997</v>
       </c>
       <c r="G12" s="1">
-        <v>10.004880</v>
+        <v>10.00488</v>
       </c>
       <c r="H12" s="1">
-        <v>926.895000</v>
+        <v>926.89499999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.179000</v>
+        <v>-168.179</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>36028.069458</v>
+        <v>36028.069457999998</v>
       </c>
       <c r="L12" s="1">
         <v>10.007797</v>
       </c>
       <c r="M12" s="1">
-        <v>948.992000</v>
+        <v>948.99199999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.939000</v>
+        <v>-119.93899999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>36038.362474</v>
+        <v>36038.362474000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.010656</v>
+        <v>10.010656000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>955.395000</v>
+        <v>955.39499999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.523000</v>
+        <v>-104.523</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>36048.492728</v>
+        <v>36048.492727999997</v>
       </c>
       <c r="V12" s="1">
-        <v>10.013470</v>
+        <v>10.01347</v>
       </c>
       <c r="W12" s="1">
-        <v>961.697000</v>
+        <v>961.697</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.476500</v>
+        <v>-90.476500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>36058.674602</v>
+        <v>36058.674601999999</v>
       </c>
       <c r="AA12" s="1">
         <v>10.016299</v>
       </c>
       <c r="AB12" s="1">
-        <v>969.016000</v>
+        <v>969.01599999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.690800</v>
+        <v>-80.690799999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>36068.839614</v>
+        <v>36068.839613999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.019122</v>
+        <v>10.019121999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>973.820000</v>
+        <v>973.82</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.183500</v>
+        <v>-80.183499999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>36079.030913</v>
+        <v>36079.030913000002</v>
       </c>
       <c r="AK12" s="1">
         <v>10.021953</v>
       </c>
       <c r="AL12" s="1">
-        <v>981.647000</v>
+        <v>981.64700000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.876700</v>
+        <v>-87.8767</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>36089.827361</v>
+        <v>36089.827361000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.024952</v>
+        <v>10.024952000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.773000</v>
+        <v>990.77300000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.811000</v>
+        <v>-102.81100000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>36101.218947</v>
+        <v>36101.218947000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.028116</v>
+        <v>10.028116000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.430000</v>
+        <v>-124.43</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>36112.196405</v>
+        <v>36112.196405000002</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.031166</v>
+        <v>10.031166000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1011.590000</v>
+        <v>1011.59</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.289000</v>
+        <v>-143.28899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>36123.157494</v>
+        <v>36123.157493999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.034210</v>
+        <v>10.03421</v>
       </c>
       <c r="BF12" s="1">
-        <v>1056.550000</v>
+        <v>1056.55</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.888000</v>
+        <v>-228.88800000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>36134.450902</v>
+        <v>36134.450901999997</v>
       </c>
       <c r="BJ12" s="1">
         <v>10.037347</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.750000</v>
+        <v>1135.75</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.819000</v>
+        <v>-366.81900000000002</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>36145.492343</v>
+        <v>36145.492342999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.040415</v>
+        <v>10.040414999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.769000</v>
+        <v>-580.76900000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>36156.304172</v>
+        <v>36156.304171999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.043418</v>
+        <v>10.043418000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1415.770000</v>
+        <v>1415.77</v>
       </c>
       <c r="BV12" s="1">
-        <v>-809.409000</v>
+        <v>-809.40899999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>36167.116924</v>
+        <v>36167.116924000002</v>
       </c>
       <c r="BY12" s="1">
         <v>10.046421</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1579.300000</v>
+        <v>1579.3</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1049.100000</v>
+        <v>-1049.0999999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>36179.077492</v>
+        <v>36179.077491999997</v>
       </c>
       <c r="CD12" s="1">
         <v>10.049744</v>
       </c>
       <c r="CE12" s="1">
-        <v>1993.520000</v>
+        <v>1993.52</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1608.210000</v>
+        <v>-1608.21</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>36007.799480</v>
+        <v>36007.799480000001</v>
       </c>
       <c r="B13" s="1">
         <v>10.002167</v>
       </c>
       <c r="C13" s="1">
-        <v>909.273000</v>
+        <v>909.27300000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.251000</v>
+        <v>-198.251</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>36018.216461</v>
+        <v>36018.216461000004</v>
       </c>
       <c r="G13" s="1">
-        <v>10.005060</v>
+        <v>10.00506</v>
       </c>
       <c r="H13" s="1">
-        <v>926.426000</v>
+        <v>926.42600000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.503000</v>
+        <v>-167.50299999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>36028.449394</v>
+        <v>36028.449394000003</v>
       </c>
       <c r="L13" s="1">
-        <v>10.007903</v>
+        <v>10.007903000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>948.863000</v>
+        <v>948.86300000000006</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.968000</v>
+        <v>-119.968</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>36038.679414</v>
+        <v>36038.679413999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>10.010744</v>
+        <v>10.010744000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>955.367000</v>
+        <v>955.36699999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.478000</v>
+        <v>-104.47799999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>36048.834471</v>
+        <v>36048.834471000002</v>
       </c>
       <c r="V13" s="1">
         <v>10.013565</v>
       </c>
       <c r="W13" s="1">
-        <v>961.789000</v>
+        <v>961.78899999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.403600</v>
+        <v>-90.403599999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>36059.021803</v>
+        <v>36059.021803000003</v>
       </c>
       <c r="AA13" s="1">
-        <v>10.016395</v>
+        <v>10.016394999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.942000</v>
+        <v>968.94200000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.652600</v>
+        <v>-80.652600000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>36069.179870</v>
+        <v>36069.17987</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.019217</v>
+        <v>10.019216999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>973.806000</v>
+        <v>973.80600000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.176100</v>
+        <v>-80.176100000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>36079.441103</v>
+        <v>36079.441102999997</v>
       </c>
       <c r="AK13" s="1">
         <v>10.022067</v>
       </c>
       <c r="AL13" s="1">
-        <v>981.671000</v>
+        <v>981.67100000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.872600</v>
+        <v>-87.872600000000006</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>36090.492496</v>
+        <v>36090.492495999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>10.025137</v>
+        <v>10.025137000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.767000</v>
+        <v>990.76700000000005</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.799000</v>
+        <v>-102.79900000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>36101.524497</v>
+        <v>36101.524496999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.028201</v>
+        <v>10.028200999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.441000</v>
+        <v>-124.441</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>36112.553555</v>
+        <v>36112.553554999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.031265</v>
+        <v>10.031264999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1011.640000</v>
+        <v>1011.64</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.287000</v>
+        <v>-143.28700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>36123.516598</v>
+        <v>36123.516598000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.034310</v>
+        <v>10.03431</v>
       </c>
       <c r="BF13" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.885000</v>
+        <v>-228.88499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>36134.825383</v>
+        <v>36134.825383000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>10.037451</v>
+        <v>10.037451000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.836000</v>
+        <v>-366.83600000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>36145.912952</v>
+        <v>36145.912951999999</v>
       </c>
       <c r="BO13" s="1">
         <v>10.040531</v>
       </c>
       <c r="BP13" s="1">
-        <v>1267.430000</v>
+        <v>1267.43</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.738000</v>
+        <v>-580.73800000000006</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>36156.735657</v>
+        <v>36156.735656999997</v>
       </c>
       <c r="BT13" s="1">
         <v>10.043538</v>
       </c>
       <c r="BU13" s="1">
-        <v>1415.820000</v>
+        <v>1415.82</v>
       </c>
       <c r="BV13" s="1">
-        <v>-809.403000</v>
+        <v>-809.40300000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>36167.538524</v>
+        <v>36167.538524000003</v>
       </c>
       <c r="BY13" s="1">
         <v>10.046538</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1579.260000</v>
+        <v>1579.26</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1049.140000</v>
+        <v>-1049.1400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>36179.617135</v>
@@ -3548,407 +3964,407 @@
         <v>10.049894</v>
       </c>
       <c r="CE13" s="1">
-        <v>1993.430000</v>
+        <v>1993.43</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1610.360000</v>
+        <v>-1610.36</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>36008.169504</v>
+        <v>36008.169503999998</v>
       </c>
       <c r="B14" s="1">
         <v>10.002269</v>
       </c>
       <c r="C14" s="1">
-        <v>909.213000</v>
+        <v>909.21299999999997</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.910000</v>
+        <v>-197.91</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>36018.605793</v>
+        <v>36018.605793000002</v>
       </c>
       <c r="G14" s="1">
-        <v>10.005168</v>
+        <v>10.005167999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>926.521000</v>
+        <v>926.52099999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.936000</v>
+        <v>-167.93600000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>36028.795634</v>
+        <v>36028.795634000002</v>
       </c>
       <c r="L14" s="1">
         <v>10.007999</v>
       </c>
       <c r="M14" s="1">
-        <v>948.921000</v>
+        <v>948.92100000000005</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.007000</v>
+        <v>-120.00700000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>36039.028105</v>
+        <v>36039.028104999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.010841</v>
+        <v>10.010840999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>955.396000</v>
+        <v>955.39599999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.462000</v>
+        <v>-104.462</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>36049.177243</v>
+        <v>36049.177242999998</v>
       </c>
       <c r="V14" s="1">
-        <v>10.013660</v>
+        <v>10.01366</v>
       </c>
       <c r="W14" s="1">
-        <v>961.830000</v>
+        <v>961.83</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.421900</v>
+        <v>-90.421899999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>36059.437449</v>
+        <v>36059.437448999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>10.016510</v>
+        <v>10.01651</v>
       </c>
       <c r="AB14" s="1">
-        <v>969.042000</v>
+        <v>969.04200000000003</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.816000</v>
+        <v>-80.816000000000003</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>36069.599020</v>
+        <v>36069.599020000001</v>
       </c>
       <c r="AF14" s="1">
         <v>10.019333</v>
       </c>
       <c r="AG14" s="1">
-        <v>973.818000</v>
+        <v>973.81799999999998</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.183500</v>
+        <v>-80.183499999999995</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>36079.734297</v>
+        <v>36079.734297000003</v>
       </c>
       <c r="AK14" s="1">
         <v>10.022148</v>
       </c>
       <c r="AL14" s="1">
-        <v>981.669000</v>
+        <v>981.66899999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.862200</v>
+        <v>-87.862200000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>36090.857520</v>
+        <v>36090.857519999998</v>
       </c>
       <c r="AP14" s="1">
         <v>10.025238</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.775000</v>
+        <v>990.77499999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.812000</v>
+        <v>-102.812</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>36101.890035</v>
+        <v>36101.890034999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.028303</v>
+        <v>10.028302999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.440000</v>
+        <v>-124.44</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>36112.913619</v>
+        <v>36112.913618999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>10.031365</v>
+        <v>10.031364999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.288000</v>
+        <v>-143.28800000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>36123.875701</v>
+        <v>36123.875700999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>10.034410</v>
+        <v>10.034409999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.881000</v>
+        <v>-228.881</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>36135.596165</v>
+        <v>36135.596165000003</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.037666</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.829000</v>
+        <v>-366.82900000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>36146.313718</v>
+        <v>36146.313717999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>10.040643</v>
+        <v>10.040642999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1267.410000</v>
+        <v>1267.4100000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.754000</v>
+        <v>-580.75400000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>36157.163704</v>
+        <v>36157.163703999999</v>
       </c>
       <c r="BT14" s="1">
         <v>10.043657</v>
       </c>
       <c r="BU14" s="1">
-        <v>1415.760000</v>
+        <v>1415.76</v>
       </c>
       <c r="BV14" s="1">
-        <v>-809.455000</v>
+        <v>-809.45500000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>36167.984922</v>
+        <v>36167.984922000003</v>
       </c>
       <c r="BY14" s="1">
         <v>10.046662</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1579.440000</v>
+        <v>1579.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1049.200000</v>
+        <v>-1049.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>36180.461289</v>
+        <v>36180.461288999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.050128</v>
+        <v>10.050128000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1992.730000</v>
+        <v>1992.73</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1608.810000</v>
+        <v>-1608.81</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>36008.514220</v>
+        <v>36008.514219999997</v>
       </c>
       <c r="B15" s="1">
-        <v>10.002365</v>
+        <v>10.002364999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>909.422000</v>
+        <v>909.42200000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.172000</v>
+        <v>-198.172</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>36018.945056</v>
+        <v>36018.945055999997</v>
       </c>
       <c r="G15" s="1">
-        <v>10.005263</v>
+        <v>10.005262999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>926.360000</v>
+        <v>926.36</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.593000</v>
+        <v>-167.59299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>36029.140321</v>
+        <v>36029.140320999999</v>
       </c>
       <c r="L15" s="1">
-        <v>10.008095</v>
+        <v>10.008095000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>948.822000</v>
+        <v>948.822</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.946000</v>
+        <v>-119.946</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>36039.444212</v>
+        <v>36039.444212000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>10.010957</v>
+        <v>10.010956999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>955.404000</v>
+        <v>955.404</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.466000</v>
+        <v>-104.46599999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>36049.592855</v>
+        <v>36049.592855000003</v>
       </c>
       <c r="V15" s="1">
         <v>10.013776</v>
       </c>
       <c r="W15" s="1">
-        <v>961.794000</v>
+        <v>961.79399999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.466200</v>
+        <v>-90.466200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>36059.718681</v>
+        <v>36059.718680999998</v>
       </c>
       <c r="AA15" s="1">
         <v>10.016589</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.954000</v>
+        <v>968.95399999999995</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.665700</v>
+        <v>-80.665700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>36069.879228</v>
+        <v>36069.879227999998</v>
       </c>
       <c r="AF15" s="1">
         <v>10.019411</v>
       </c>
       <c r="AG15" s="1">
-        <v>973.821000</v>
+        <v>973.82100000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.196000</v>
+        <v>-80.195999999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>36080.079455</v>
+        <v>36080.079454999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>10.022244</v>
+        <v>10.022244000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>981.699000</v>
+        <v>981.69899999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.864400</v>
+        <v>-87.864400000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>36091.219103</v>
+        <v>36091.219103000003</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.025339</v>
+        <v>10.025339000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.797000</v>
+        <v>990.79700000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.793000</v>
+        <v>-102.79300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>36102.256082</v>
@@ -3957,378 +4373,378 @@
         <v>10.028404</v>
       </c>
       <c r="AV15" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.436000</v>
+        <v>-124.43600000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>36113.632323</v>
+        <v>36113.632322999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.031565</v>
+        <v>10.031565000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1011.610000</v>
+        <v>1011.61</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.305000</v>
+        <v>-143.30500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>36124.597908</v>
+        <v>36124.597908000003</v>
       </c>
       <c r="BE15" s="1">
         <v>10.034611</v>
       </c>
       <c r="BF15" s="1">
-        <v>1056.580000</v>
+        <v>1056.58</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.901000</v>
+        <v>-228.90100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>36135.970644</v>
+        <v>36135.970644000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.037770</v>
+        <v>10.03777</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.750000</v>
+        <v>1135.75</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.827000</v>
+        <v>-366.827</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>36146.732342</v>
+        <v>36146.732342000003</v>
       </c>
       <c r="BO15" s="1">
         <v>10.040759</v>
       </c>
       <c r="BP15" s="1">
-        <v>1267.390000</v>
+        <v>1267.3900000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.751000</v>
+        <v>-580.75099999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>36157.571415</v>
+        <v>36157.571414999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.043770</v>
+        <v>10.04377</v>
       </c>
       <c r="BU15" s="1">
-        <v>1415.790000</v>
+        <v>1415.79</v>
       </c>
       <c r="BV15" s="1">
-        <v>-809.465000</v>
+        <v>-809.46500000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>36168.719529</v>
+        <v>36168.719529000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>10.046867</v>
+        <v>10.046867000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1579.320000</v>
+        <v>1579.32</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1049.180000</v>
+        <v>-1049.18</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>36180.695401</v>
+        <v>36180.695400999997</v>
       </c>
       <c r="CD15" s="1">
         <v>10.050193</v>
       </c>
       <c r="CE15" s="1">
-        <v>1992.890000</v>
+        <v>1992.89</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1608.640000</v>
+        <v>-1608.64</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>36008.857422</v>
+        <v>36008.857422000001</v>
       </c>
       <c r="B16" s="1">
-        <v>10.002460</v>
+        <v>10.002459999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>909.395000</v>
+        <v>909.39499999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.220000</v>
+        <v>-198.22</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>36019.293743</v>
+        <v>36019.293743000002</v>
       </c>
       <c r="G16" s="1">
         <v>10.005359</v>
       </c>
       <c r="H16" s="1">
-        <v>926.637000</v>
+        <v>926.63699999999994</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.982000</v>
+        <v>-167.982</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>36029.559443</v>
+        <v>36029.559442999998</v>
       </c>
       <c r="L16" s="1">
-        <v>10.008211</v>
+        <v>10.008210999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>949.003000</v>
+        <v>949.00300000000004</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.148000</v>
+        <v>-120.148</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>36039.725939</v>
+        <v>36039.725939000004</v>
       </c>
       <c r="Q16" s="1">
         <v>10.011035</v>
       </c>
       <c r="R16" s="1">
-        <v>955.421000</v>
+        <v>955.42100000000005</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.467000</v>
+        <v>-104.467</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>36049.874123</v>
+        <v>36049.874123000001</v>
       </c>
       <c r="V16" s="1">
         <v>10.013854</v>
       </c>
       <c r="W16" s="1">
-        <v>961.809000</v>
+        <v>961.80899999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.441400</v>
+        <v>-90.441400000000002</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>36060.066377</v>
+        <v>36060.066377000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.016685</v>
+        <v>10.016685000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.916000</v>
+        <v>968.91600000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.709600</v>
+        <v>-80.709599999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>36070.225963</v>
+        <v>36070.225962999997</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.019507</v>
+        <v>10.019507000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>973.820000</v>
+        <v>973.82</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.176000</v>
+        <v>-80.176000000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>36080.429170</v>
+        <v>36080.429170000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.022341</v>
+        <v>10.022341000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>981.680000</v>
+        <v>981.68</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.846000</v>
+        <v>-87.846000000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>36091.943294</v>
+        <v>36091.943293999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.025540</v>
+        <v>10.025539999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.780000</v>
+        <v>990.78</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.802000</v>
+        <v>-102.80200000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>36102.989715</v>
+        <v>36102.989715000003</v>
       </c>
       <c r="AU16" s="1">
         <v>10.028608</v>
       </c>
       <c r="AV16" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.443000</v>
+        <v>-124.443</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>36113.990466</v>
+        <v>36113.990466000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>10.031664</v>
+        <v>10.031663999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1011.630000</v>
+        <v>1011.63</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.285000</v>
+        <v>-143.285</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>36124.987763</v>
+        <v>36124.987762999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>10.034719</v>
+        <v>10.034719000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.887000</v>
+        <v>-228.887</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>36136.347109</v>
+        <v>36136.347109000002</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.037874</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.730000</v>
+        <v>1135.73</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.829000</v>
+        <v>-366.82900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>36147.437655</v>
+        <v>36147.437655000002</v>
       </c>
       <c r="BO16" s="1">
         <v>10.040955</v>
       </c>
       <c r="BP16" s="1">
-        <v>1267.460000</v>
+        <v>1267.46</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.742000</v>
+        <v>-580.74199999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>36158.318924</v>
+        <v>36158.318923999999</v>
       </c>
       <c r="BT16" s="1">
         <v>10.043977</v>
       </c>
       <c r="BU16" s="1">
-        <v>1415.870000</v>
+        <v>1415.87</v>
       </c>
       <c r="BV16" s="1">
-        <v>-809.500000</v>
+        <v>-809.5</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>36168.847997</v>
+        <v>36168.847996999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.046902</v>
+        <v>10.046901999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1579.330000</v>
+        <v>1579.33</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1049.330000</v>
+        <v>-1049.33</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>36181.215209</v>
+        <v>36181.215209000002</v>
       </c>
       <c r="CD16" s="1">
         <v>10.050338</v>
       </c>
       <c r="CE16" s="1">
-        <v>1992.500000</v>
+        <v>1992.5</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1610.320000</v>
+        <v>-1610.32</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>36009.277532</v>
       </c>
@@ -4336,315 +4752,315 @@
         <v>10.002577</v>
       </c>
       <c r="C17" s="1">
-        <v>909.479000</v>
+        <v>909.47900000000004</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.078000</v>
+        <v>-198.078</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>36019.721790</v>
+        <v>36019.721790000003</v>
       </c>
       <c r="G17" s="1">
         <v>10.005478</v>
       </c>
       <c r="H17" s="1">
-        <v>926.621000</v>
+        <v>926.62099999999998</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.749000</v>
+        <v>-167.749</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>36029.851089</v>
+        <v>36029.851089000003</v>
       </c>
       <c r="L17" s="1">
-        <v>10.008292</v>
+        <v>10.008292000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>948.971000</v>
+        <v>948.971</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.052000</v>
+        <v>-120.05200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>36040.070673</v>
+        <v>36040.070673000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.011131</v>
+        <v>10.011131000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>955.430000</v>
+        <v>955.43</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.472000</v>
+        <v>-104.47199999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>36050.215830</v>
+        <v>36050.215830000001</v>
       </c>
       <c r="V17" s="1">
         <v>10.013949</v>
       </c>
       <c r="W17" s="1">
-        <v>961.790000</v>
+        <v>961.79</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.522900</v>
+        <v>-90.522900000000007</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>36060.414072</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.016782</v>
+        <v>10.016781999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>968.882000</v>
+        <v>968.88199999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.720400</v>
+        <v>-80.720399999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>36070.565230</v>
+        <v>36070.56523</v>
       </c>
       <c r="AF17" s="1">
         <v>10.019601</v>
       </c>
       <c r="AG17" s="1">
-        <v>973.834000</v>
+        <v>973.83399999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.215700</v>
+        <v>-80.215699999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>36081.126014</v>
+        <v>36081.126014000001</v>
       </c>
       <c r="AK17" s="1">
         <v>10.022535</v>
       </c>
       <c r="AL17" s="1">
-        <v>981.653000</v>
+        <v>981.65300000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.850900</v>
+        <v>-87.850899999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>36092.318769</v>
+        <v>36092.318768999998</v>
       </c>
       <c r="AP17" s="1">
         <v>10.025644</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.782000</v>
+        <v>990.78200000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.803000</v>
+        <v>-102.803</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>36103.371088</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.028714</v>
+        <v>10.028714000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.435000</v>
+        <v>-124.435</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>36114.350033</v>
+        <v>36114.350033000002</v>
       </c>
       <c r="AZ17" s="1">
-        <v>10.031764</v>
+        <v>10.031764000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.293000</v>
+        <v>-143.29300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>36125.658819</v>
+        <v>36125.658818999997</v>
       </c>
       <c r="BE17" s="1">
         <v>10.034905</v>
       </c>
       <c r="BF17" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.886000</v>
+        <v>-228.886</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>36137.023156</v>
+        <v>36137.023156000003</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.038062</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.730000</v>
+        <v>1135.73</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.827000</v>
+        <v>-366.827</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>36147.550246</v>
+        <v>36147.550245999999</v>
       </c>
       <c r="BO17" s="1">
         <v>10.040986</v>
       </c>
       <c r="BP17" s="1">
-        <v>1267.440000</v>
+        <v>1267.44</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.759000</v>
+        <v>-580.75900000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>36158.617516</v>
+        <v>36158.617515999998</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.044060</v>
+        <v>10.04406</v>
       </c>
       <c r="BU17" s="1">
-        <v>1415.870000</v>
+        <v>1415.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-809.399000</v>
+        <v>-809.399</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>36169.274024</v>
+        <v>36169.274023999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.047021</v>
+        <v>10.047021000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1579.460000</v>
+        <v>1579.46</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1049.260000</v>
+        <v>-1049.26</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>36181.736009</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.050482</v>
+        <v>10.050482000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1994.260000</v>
+        <v>1994.26</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1610.680000</v>
+        <v>-1610.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>36009.552844</v>
+        <v>36009.552843999998</v>
       </c>
       <c r="B18" s="1">
         <v>10.002654</v>
       </c>
       <c r="C18" s="1">
-        <v>909.436000</v>
+        <v>909.43600000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.157000</v>
+        <v>-198.15700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>36020.006989</v>
+        <v>36020.006989000001</v>
       </c>
       <c r="G18" s="1">
         <v>10.005557</v>
       </c>
       <c r="H18" s="1">
-        <v>927.036000</v>
+        <v>927.03599999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.882000</v>
+        <v>-167.88200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>36030.196304</v>
+        <v>36030.196303999997</v>
       </c>
       <c r="L18" s="1">
         <v>10.008388</v>
       </c>
       <c r="M18" s="1">
-        <v>948.845000</v>
+        <v>948.84500000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.909000</v>
+        <v>-119.90900000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>36040.421172</v>
+        <v>36040.421172000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.011228</v>
+        <v>10.011227999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>955.390000</v>
+        <v>955.39</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.471000</v>
+        <v>-104.471</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>36050.559557</v>
@@ -4653,769 +5069,769 @@
         <v>10.014044</v>
       </c>
       <c r="W18" s="1">
-        <v>961.818000</v>
+        <v>961.81799999999998</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.482400</v>
+        <v>-90.482399999999998</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>36061.113431</v>
+        <v>36061.113430999998</v>
       </c>
       <c r="AA18" s="1">
         <v>10.016976</v>
       </c>
       <c r="AB18" s="1">
-        <v>969.017000</v>
+        <v>969.01700000000005</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.638400</v>
+        <v>-80.638400000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>36071.257115</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.019794</v>
+        <v>10.019793999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>973.849000</v>
+        <v>973.84900000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.176700</v>
+        <v>-80.176699999999997</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>36081.474734</v>
+        <v>36081.474734000003</v>
       </c>
       <c r="AK18" s="1">
         <v>10.022632</v>
       </c>
       <c r="AL18" s="1">
-        <v>981.681000</v>
+        <v>981.68100000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.854600</v>
+        <v>-87.854600000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>36092.679821</v>
+        <v>36092.679820999998</v>
       </c>
       <c r="AP18" s="1">
         <v>10.025744</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.759000</v>
+        <v>990.75900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.832000</v>
+        <v>-102.83199999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>36103.737135</v>
+        <v>36103.737135000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.028816</v>
+        <v>10.028816000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.447000</v>
+        <v>-124.447</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>36115.016657</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.031949</v>
+        <v>10.031948999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1011.580000</v>
+        <v>1011.58</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.299000</v>
+        <v>-143.29900000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>36126.070993</v>
+        <v>36126.070993000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>10.035020</v>
+        <v>10.035019999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1056.580000</v>
+        <v>1056.58</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.904000</v>
+        <v>-228.904</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>36137.131780</v>
+        <v>36137.131780000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>10.038092</v>
+        <v>10.038092000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.770000</v>
+        <v>1135.77</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.822000</v>
+        <v>-366.822</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>36147.975812</v>
+        <v>36147.975811999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.041104</v>
+        <v>10.041104000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.742000</v>
+        <v>-580.74199999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>36158.873910</v>
+        <v>36158.873910000002</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.044132</v>
+        <v>10.044131999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1415.920000</v>
+        <v>1415.92</v>
       </c>
       <c r="BV18" s="1">
-        <v>-809.459000</v>
+        <v>-809.45899999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>36169.692171</v>
+        <v>36169.692171000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>10.047137</v>
+        <v>10.047136999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1579.380000</v>
+        <v>1579.38</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1049.210000</v>
+        <v>-1049.21</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>36182.251883</v>
+        <v>36182.251882999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.050626</v>
+        <v>10.050625999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1994.320000</v>
+        <v>1994.32</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1608.940000</v>
+        <v>-1608.94</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>36009.896539</v>
+        <v>36009.896539000001</v>
       </c>
       <c r="B19" s="1">
         <v>10.002749</v>
       </c>
       <c r="C19" s="1">
-        <v>909.463000</v>
+        <v>909.46299999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.080000</v>
+        <v>-198.08</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>36020.351741</v>
+        <v>36020.351740999999</v>
       </c>
       <c r="G19" s="1">
-        <v>10.005653</v>
+        <v>10.005653000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>926.401000</v>
+        <v>926.40099999999995</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.815000</v>
+        <v>-167.815</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>36030.539536</v>
+        <v>36030.539535999997</v>
       </c>
       <c r="L19" s="1">
         <v>10.008483</v>
       </c>
       <c r="M19" s="1">
-        <v>948.880000</v>
+        <v>948.88</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.146000</v>
+        <v>-120.146</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>36041.120691</v>
+        <v>36041.120690999996</v>
       </c>
       <c r="Q19" s="1">
         <v>10.011422</v>
       </c>
       <c r="R19" s="1">
-        <v>955.390000</v>
+        <v>955.39</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.467000</v>
+        <v>-104.467</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>36051.249493</v>
+        <v>36051.249493000003</v>
       </c>
       <c r="V19" s="1">
         <v>10.014236</v>
       </c>
       <c r="W19" s="1">
-        <v>961.809000</v>
+        <v>961.80899999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.426800</v>
+        <v>-90.4268</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>36061.461128</v>
+        <v>36061.461128000003</v>
       </c>
       <c r="AA19" s="1">
         <v>10.017073</v>
       </c>
       <c r="AB19" s="1">
-        <v>969.037000</v>
+        <v>969.03700000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.660600</v>
+        <v>-80.660600000000002</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>36071.597401</v>
+        <v>36071.597400999999</v>
       </c>
       <c r="AF19" s="1">
         <v>10.019888</v>
       </c>
       <c r="AG19" s="1">
-        <v>973.822000</v>
+        <v>973.822</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.172200</v>
+        <v>-80.172200000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36081.825903</v>
+        <v>36081.825902999997</v>
       </c>
       <c r="AK19" s="1">
         <v>10.022729</v>
       </c>
       <c r="AL19" s="1">
-        <v>981.670000</v>
+        <v>981.67</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.855800</v>
+        <v>-87.855800000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>36093.348925</v>
+        <v>36093.348924999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.025930</v>
+        <v>10.025930000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.757000</v>
+        <v>990.75699999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.827000</v>
+        <v>-102.827</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>36104.406734</v>
+        <v>36104.406733999997</v>
       </c>
       <c r="AU19" s="1">
         <v>10.029002</v>
       </c>
       <c r="AV19" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.429000</v>
+        <v>-124.429</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>36115.460575</v>
+        <v>36115.460574999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>10.032072</v>
+        <v>10.032071999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1011.610000</v>
+        <v>1011.61</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.283000</v>
+        <v>-143.28299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>36126.458880</v>
+        <v>36126.458879999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.035127</v>
+        <v>10.035126999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1056.580000</v>
+        <v>1056.58</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.894000</v>
+        <v>-228.89400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>36137.486915</v>
+        <v>36137.486915000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.038191</v>
+        <v>10.038190999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.750000</v>
+        <v>1135.75</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.843000</v>
+        <v>-366.84300000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>36148.361701</v>
+        <v>36148.361701000002</v>
       </c>
       <c r="BO19" s="1">
         <v>10.041212</v>
       </c>
       <c r="BP19" s="1">
-        <v>1267.430000</v>
+        <v>1267.43</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.755000</v>
+        <v>-580.755</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>36159.284101</v>
+        <v>36159.284100999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.044246</v>
+        <v>10.044245999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1415.900000</v>
+        <v>1415.9</v>
       </c>
       <c r="BV19" s="1">
-        <v>-809.454000</v>
+        <v>-809.45399999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>36170.146487</v>
+        <v>36170.146486999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>10.047263</v>
+        <v>10.047262999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1579.350000</v>
+        <v>1579.35</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1049.260000</v>
+        <v>-1049.26</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>36182.768710</v>
+        <v>36182.768709999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.050769</v>
+        <v>10.050769000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1994.390000</v>
+        <v>1994.39</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1609.300000</v>
+        <v>-1609.3</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>36010.239305</v>
+        <v>36010.239305000003</v>
       </c>
       <c r="B20" s="1">
         <v>10.002844</v>
       </c>
       <c r="C20" s="1">
-        <v>909.535000</v>
+        <v>909.53499999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.968000</v>
+        <v>-197.96799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>36020.694445</v>
+        <v>36020.694445000001</v>
       </c>
       <c r="G20" s="1">
-        <v>10.005748</v>
+        <v>10.005748000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>926.356000</v>
+        <v>926.35599999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.557000</v>
+        <v>-167.55699999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>36031.232943</v>
+        <v>36031.232943000003</v>
       </c>
       <c r="L20" s="1">
-        <v>10.008676</v>
+        <v>10.008675999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>948.821000</v>
+        <v>948.82100000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.013000</v>
+        <v>-120.01300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>36041.468918</v>
+        <v>36041.468917999999</v>
       </c>
       <c r="Q20" s="1">
         <v>10.011519</v>
       </c>
       <c r="R20" s="1">
-        <v>955.349000</v>
+        <v>955.34900000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.481000</v>
+        <v>-104.48099999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>36051.589748</v>
+        <v>36051.589747999999</v>
       </c>
       <c r="V20" s="1">
-        <v>10.014330</v>
+        <v>10.014329999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>961.814000</v>
+        <v>961.81399999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.466500</v>
+        <v>-90.466499999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>36061.810310</v>
+        <v>36061.810310000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>10.017170</v>
+        <v>10.01717</v>
       </c>
       <c r="AB20" s="1">
-        <v>968.977000</v>
+        <v>968.97699999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.665800</v>
+        <v>-80.665800000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>36072.167781</v>
+        <v>36072.167780999996</v>
       </c>
       <c r="AF20" s="1">
         <v>10.020047</v>
       </c>
       <c r="AG20" s="1">
-        <v>973.855000</v>
+        <v>973.85500000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.155300</v>
+        <v>-80.155299999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>36082.476655</v>
+        <v>36082.476654999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.022910</v>
+        <v>10.02291</v>
       </c>
       <c r="AL20" s="1">
-        <v>981.669000</v>
+        <v>981.66899999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.883300</v>
+        <v>-87.883300000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>36093.762589</v>
+        <v>36093.762588999998</v>
       </c>
       <c r="AP20" s="1">
         <v>10.026045</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.746000</v>
+        <v>990.74599999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.806000</v>
+        <v>-102.806</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>36104.865037</v>
+        <v>36104.865037000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>10.029129</v>
+        <v>10.029128999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.436000</v>
+        <v>-124.43600000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>36115.818192</v>
+        <v>36115.818191999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.032172</v>
+        <v>10.032171999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.310000</v>
+        <v>-143.31</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>36126.818464</v>
+        <v>36126.818464000004</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.035227</v>
+        <v>10.035227000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.905000</v>
+        <v>-228.905</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>36137.872803</v>
+        <v>36137.872802999998</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.038298</v>
+        <v>10.038297999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.730000</v>
+        <v>1135.73</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.857000</v>
+        <v>-366.85700000000003</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>36148.795203</v>
+        <v>36148.795203000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>10.041332</v>
+        <v>10.041332000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1267.470000</v>
+        <v>1267.47</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.763000</v>
+        <v>-580.76300000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>36159.733973</v>
+        <v>36159.733973000002</v>
       </c>
       <c r="BT20" s="1">
         <v>10.044371</v>
       </c>
       <c r="BU20" s="1">
-        <v>1415.930000</v>
+        <v>1415.93</v>
       </c>
       <c r="BV20" s="1">
-        <v>-809.479000</v>
+        <v>-809.47900000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>36170.595863</v>
+        <v>36170.595863000002</v>
       </c>
       <c r="BY20" s="1">
         <v>10.047388</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1579.400000</v>
+        <v>1579.4</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1049.250000</v>
+        <v>-1049.25</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>36183.322214</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.050923</v>
+        <v>10.050922999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1994.480000</v>
+        <v>1994.48</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1610.260000</v>
+        <v>-1610.26</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>36010.923760</v>
+        <v>36010.923759999998</v>
       </c>
       <c r="B21" s="1">
         <v>10.003034</v>
       </c>
       <c r="C21" s="1">
-        <v>909.281000</v>
+        <v>909.28099999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.062000</v>
+        <v>-198.06200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>36021.390372</v>
+        <v>36021.390372000002</v>
       </c>
       <c r="G21" s="1">
-        <v>10.005942</v>
+        <v>10.005941999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>926.500000</v>
+        <v>926.5</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.991000</v>
+        <v>-167.99100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>36031.580638</v>
+        <v>36031.580637999999</v>
       </c>
       <c r="L21" s="1">
         <v>10.008772</v>
       </c>
       <c r="M21" s="1">
-        <v>948.956000</v>
+        <v>948.95600000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.061000</v>
+        <v>-120.06100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>36041.817601</v>
+        <v>36041.817601000002</v>
       </c>
       <c r="Q21" s="1">
         <v>10.011616</v>
       </c>
       <c r="R21" s="1">
-        <v>955.389000</v>
+        <v>955.38900000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.434000</v>
+        <v>-104.434</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>36051.934469</v>
@@ -5424,88 +5840,88 @@
         <v>10.014426</v>
       </c>
       <c r="W21" s="1">
-        <v>961.800000</v>
+        <v>961.8</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.466300</v>
+        <v>-90.466300000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>36062.459611</v>
+        <v>36062.459610999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.017350</v>
+        <v>10.01735</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.934000</v>
+        <v>968.93399999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.786900</v>
+        <v>-80.786900000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>36072.652361</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.020181</v>
+        <v>10.020180999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>973.829000</v>
+        <v>973.82899999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.168700</v>
+        <v>-80.168700000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>36082.867962</v>
+        <v>36082.867961999997</v>
       </c>
       <c r="AK21" s="1">
         <v>10.023019</v>
       </c>
       <c r="AL21" s="1">
-        <v>981.674000</v>
+        <v>981.67399999999998</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.862500</v>
+        <v>-87.862499999999997</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>36094.144011</v>
+        <v>36094.144010999997</v>
       </c>
       <c r="AP21" s="1">
         <v>10.026151</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.779000</v>
+        <v>990.779</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.822000</v>
+        <v>-102.822</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>36105.227118</v>
+        <v>36105.227118000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>10.029230</v>
+        <v>10.02923</v>
       </c>
       <c r="AV21" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.443000</v>
+        <v>-124.443</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>36116.176798</v>
@@ -5514,120 +5930,120 @@
         <v>10.032271</v>
       </c>
       <c r="BA21" s="1">
-        <v>1011.600000</v>
+        <v>1011.6</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.293000</v>
+        <v>-143.29300000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>36127.238080</v>
+        <v>36127.238080000003</v>
       </c>
       <c r="BE21" s="1">
         <v>10.035344</v>
       </c>
       <c r="BF21" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.864000</v>
+        <v>-228.864</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>36138.287954</v>
+        <v>36138.287953999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>10.038413</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.760000</v>
+        <v>1135.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.818000</v>
+        <v>-366.81799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>36149.191539</v>
+        <v>36149.191538999999</v>
       </c>
       <c r="BO21" s="1">
         <v>10.041442</v>
       </c>
       <c r="BP21" s="1">
-        <v>1267.440000</v>
+        <v>1267.44</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.767000</v>
+        <v>-580.76700000000005</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>36160.143954</v>
+        <v>36160.143953999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.044484</v>
+        <v>10.044484000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1415.950000</v>
+        <v>1415.95</v>
       </c>
       <c r="BV21" s="1">
-        <v>-809.471000</v>
+        <v>-809.471</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>36171.017462</v>
+        <v>36171.017462000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.047505</v>
+        <v>10.047504999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1579.360000</v>
+        <v>1579.36</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1049.250000</v>
+        <v>-1049.25</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>36183.850454</v>
+        <v>36183.850453999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.051070</v>
+        <v>10.051069999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1994.580000</v>
+        <v>1994.58</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1608.610000</v>
+        <v>-1608.61</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>36011.264009</v>
+        <v>36011.264008999999</v>
       </c>
       <c r="B22" s="1">
-        <v>10.003129</v>
+        <v>10.003128999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>909.590000</v>
+        <v>909.59</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.184000</v>
+        <v>-198.184</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>36021.735579</v>
@@ -5636,28 +6052,28 @@
         <v>10.006038</v>
       </c>
       <c r="H22" s="1">
-        <v>926.640000</v>
+        <v>926.64</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.313000</v>
+        <v>-168.31299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>36031.929327</v>
+        <v>36031.929326999998</v>
       </c>
       <c r="L22" s="1">
-        <v>10.008869</v>
+        <v>10.008869000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>948.709000</v>
+        <v>948.70899999999995</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.820000</v>
+        <v>-119.82</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>36042.474769</v>
@@ -5666,527 +6082,527 @@
         <v>10.011799</v>
       </c>
       <c r="R22" s="1">
-        <v>955.427000</v>
+        <v>955.42700000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.486000</v>
+        <v>-104.486</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>36052.593652</v>
+        <v>36052.593652000003</v>
       </c>
       <c r="V22" s="1">
         <v>10.014609</v>
       </c>
       <c r="W22" s="1">
-        <v>961.807000</v>
+        <v>961.80700000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.467600</v>
+        <v>-90.467600000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>36062.858357</v>
+        <v>36062.858356999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.017461</v>
+        <v>10.017461000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>968.856000</v>
+        <v>968.85599999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.611600</v>
+        <v>-80.611599999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>36072.989639</v>
+        <v>36072.989638999999</v>
       </c>
       <c r="AF22" s="1">
         <v>10.020275</v>
       </c>
       <c r="AG22" s="1">
-        <v>973.821000</v>
+        <v>973.82100000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.171400</v>
+        <v>-80.171400000000006</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>36083.219659</v>
+        <v>36083.219659000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.023117</v>
+        <v>10.023116999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>981.655000</v>
+        <v>981.65499999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.850900</v>
+        <v>-87.850899999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>36094.504637</v>
+        <v>36094.504636999998</v>
       </c>
       <c r="AP22" s="1">
         <v>10.026251</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.792000</v>
+        <v>990.79200000000003</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.823000</v>
+        <v>-102.82299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>36105.597133</v>
+        <v>36105.597133000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.029333</v>
+        <v>10.029332999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.456000</v>
+        <v>-124.456</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>36116.586030</v>
+        <v>36116.586029999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>10.032385</v>
       </c>
       <c r="BA22" s="1">
-        <v>1011.590000</v>
+        <v>1011.59</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.278000</v>
+        <v>-143.27799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>36127.543615</v>
+        <v>36127.543615000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.035429</v>
+        <v>10.035429000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1056.540000</v>
+        <v>1056.54</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.871000</v>
+        <v>-228.87100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>36138.623745</v>
+        <v>36138.623744999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.038507</v>
+        <v>10.038506999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.750000</v>
+        <v>1135.75</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.829000</v>
+        <v>-366.82900000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>36149.611156</v>
+        <v>36149.611155999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.041559</v>
+        <v>10.041558999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1267.410000</v>
+        <v>1267.4100000000001</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.751000</v>
+        <v>-580.75099999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>36160.553899</v>
+        <v>36160.553898999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.044598</v>
+        <v>10.044598000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1415.970000</v>
+        <v>1415.97</v>
       </c>
       <c r="BV22" s="1">
-        <v>-809.527000</v>
+        <v>-809.52700000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>36171.440054</v>
+        <v>36171.440053999999</v>
       </c>
       <c r="BY22" s="1">
         <v>10.047622</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1579.340000</v>
+        <v>1579.34</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1049.280000</v>
+        <v>-1049.28</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>36184.365831</v>
+        <v>36184.365831000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.051213</v>
+        <v>10.051213000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1992.440000</v>
+        <v>1992.44</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1610.160000</v>
+        <v>-1610.16</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>36011.603273</v>
+        <v>36011.603273000001</v>
       </c>
       <c r="B23" s="1">
         <v>10.003223</v>
       </c>
       <c r="C23" s="1">
-        <v>909.476000</v>
+        <v>909.476</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.231000</v>
+        <v>-198.23099999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>36022.388314</v>
+        <v>36022.388314000003</v>
       </c>
       <c r="G23" s="1">
         <v>10.006219</v>
       </c>
       <c r="H23" s="1">
-        <v>926.586000</v>
+        <v>926.58600000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.710000</v>
+        <v>-167.71</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>36032.582061</v>
+        <v>36032.582061000001</v>
       </c>
       <c r="L23" s="1">
-        <v>10.009051</v>
+        <v>10.009050999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>948.790000</v>
+        <v>948.79</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.145000</v>
+        <v>-120.145</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>36042.862176</v>
+        <v>36042.862176000002</v>
       </c>
       <c r="Q23" s="1">
         <v>10.011906</v>
       </c>
       <c r="R23" s="1">
-        <v>955.385000</v>
+        <v>955.38499999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.503000</v>
+        <v>-104.503</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>36052.962179</v>
+        <v>36052.962179000002</v>
       </c>
       <c r="V23" s="1">
-        <v>10.014712</v>
+        <v>10.014711999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>961.805000</v>
+        <v>961.80499999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.486600</v>
+        <v>-90.486599999999996</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>36063.205564</v>
+        <v>36063.205564000004</v>
       </c>
       <c r="AA23" s="1">
         <v>10.017557</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.875000</v>
+        <v>968.875</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.699700</v>
+        <v>-80.699700000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>36073.335003</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.020371</v>
+        <v>10.020371000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>973.837000</v>
+        <v>973.83699999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.185400</v>
+        <v>-80.185400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>36083.566826</v>
+        <v>36083.566826000002</v>
       </c>
       <c r="AK23" s="1">
         <v>10.023213</v>
       </c>
       <c r="AL23" s="1">
-        <v>981.682000</v>
+        <v>981.68200000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.872100</v>
+        <v>-87.872100000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>36094.922235</v>
+        <v>36094.922234999998</v>
       </c>
       <c r="AP23" s="1">
         <v>10.026367</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.765000</v>
+        <v>990.76499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.799000</v>
+        <v>-102.79900000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>36106.024684</v>
+        <v>36106.024684000004</v>
       </c>
       <c r="AU23" s="1">
         <v>10.029451</v>
       </c>
       <c r="AV23" s="1">
-        <v>1002.040000</v>
+        <v>1002.04</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.453000</v>
+        <v>-124.453</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>36116.894542</v>
+        <v>36116.894542000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.032471</v>
+        <v>10.032470999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1011.620000</v>
+        <v>1011.62</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.289000</v>
+        <v>-143.28899999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>36127.904735</v>
+        <v>36127.904734999996</v>
       </c>
       <c r="BE23" s="1">
         <v>10.035529</v>
       </c>
       <c r="BF23" s="1">
-        <v>1056.550000</v>
+        <v>1056.55</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.901000</v>
+        <v>-228.90100000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>36139.021072</v>
+        <v>36139.021072000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>10.038617</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.843000</v>
+        <v>-366.84300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>36150.006929</v>
+        <v>36150.006929000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.041669</v>
+        <v>10.041669000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1267.430000</v>
+        <v>1267.43</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.762000</v>
+        <v>-580.76199999999994</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>36160.985876</v>
+        <v>36160.985875999999</v>
       </c>
       <c r="BT23" s="1">
         <v>10.044718</v>
       </c>
       <c r="BU23" s="1">
-        <v>1416.050000</v>
+        <v>1416.05</v>
       </c>
       <c r="BV23" s="1">
-        <v>-809.444000</v>
+        <v>-809.44399999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>36171.865125</v>
+        <v>36171.865124999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.047740</v>
+        <v>10.047739999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1579.290000</v>
+        <v>1579.29</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1049.300000</v>
+        <v>-1049.3</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>36184.910901</v>
+        <v>36184.910901000003</v>
       </c>
       <c r="CD23" s="1">
         <v>10.051364</v>
       </c>
       <c r="CE23" s="1">
-        <v>1994.560000</v>
+        <v>1994.56</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1609.990000</v>
+        <v>-1609.99</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>36012.256009</v>
+        <v>36012.256008999997</v>
       </c>
       <c r="B24" s="1">
         <v>10.003404</v>
       </c>
       <c r="C24" s="1">
-        <v>909.416000</v>
+        <v>909.41600000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.831000</v>
+        <v>-197.83099999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>36022.772727</v>
+        <v>36022.772727000003</v>
       </c>
       <c r="G24" s="1">
         <v>10.006326</v>
       </c>
       <c r="H24" s="1">
-        <v>926.603000</v>
+        <v>926.60299999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.339000</v>
+        <v>-168.339</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>36032.961996</v>
+        <v>36032.961995999998</v>
       </c>
       <c r="L24" s="1">
-        <v>10.009156</v>
+        <v>10.009156000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>948.874000</v>
+        <v>948.87400000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.130000</v>
+        <v>-120.13</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>36043.209839</v>
+        <v>36043.209839000003</v>
       </c>
       <c r="Q24" s="1">
         <v>10.012003</v>
       </c>
       <c r="R24" s="1">
-        <v>955.390000</v>
+        <v>955.39</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.469000</v>
+        <v>-104.46899999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>36053.308417</v>
@@ -6195,709 +6611,710 @@
         <v>10.014808</v>
       </c>
       <c r="W24" s="1">
-        <v>961.760000</v>
+        <v>961.76</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.464800</v>
+        <v>-90.464799999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>36063.553254</v>
+        <v>36063.553253999999</v>
       </c>
       <c r="AA24" s="1">
         <v>10.017654</v>
       </c>
       <c r="AB24" s="1">
-        <v>968.894000</v>
+        <v>968.89400000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.694300</v>
+        <v>-80.694299999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>36073.751626</v>
+        <v>36073.751625999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.020487</v>
+        <v>10.020486999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>973.846000</v>
+        <v>973.846</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.188900</v>
+        <v>-80.188900000000004</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>36083.991929</v>
+        <v>36083.991929000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.023331</v>
+        <v>10.023331000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>981.648000</v>
+        <v>981.64800000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.841100</v>
+        <v>-87.841099999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>36095.224298</v>
+        <v>36095.224298000001</v>
       </c>
       <c r="AP24" s="1">
         <v>10.026451</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.757000</v>
+        <v>990.75699999999995</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.809000</v>
+        <v>-102.809</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>36106.320827</v>
+        <v>36106.320827000003</v>
       </c>
       <c r="AU24" s="1">
         <v>10.029534</v>
       </c>
       <c r="AV24" s="1">
-        <v>1002.070000</v>
+        <v>1002.07</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.426000</v>
+        <v>-124.426</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>36117.254637</v>
+        <v>36117.254636999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>10.032571</v>
+        <v>10.032571000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1011.610000</v>
+        <v>1011.61</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.295000</v>
+        <v>-143.29499999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>36128.264302</v>
+        <v>36128.264302000003</v>
       </c>
       <c r="BE24" s="1">
         <v>10.035629</v>
       </c>
       <c r="BF24" s="1">
-        <v>1056.560000</v>
+        <v>1056.56</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.897000</v>
+        <v>-228.89699999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>36139.398496</v>
+        <v>36139.398496000002</v>
       </c>
       <c r="BJ24" s="1">
         <v>10.038722</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.730000</v>
+        <v>1135.73</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.855000</v>
+        <v>-366.85500000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>36150.441458</v>
+        <v>36150.441458000001</v>
       </c>
       <c r="BO24" s="1">
         <v>10.041789</v>
       </c>
       <c r="BP24" s="1">
-        <v>1267.450000</v>
+        <v>1267.45</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.789000</v>
+        <v>-580.78899999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>36161.412932</v>
+        <v>36161.412931999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.044837</v>
+        <v>10.044836999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1416.000000</v>
+        <v>1416</v>
       </c>
       <c r="BV24" s="1">
-        <v>-809.474000</v>
+        <v>-809.47400000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>36172.280313</v>
+        <v>36172.280313000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>10.047856</v>
+        <v>10.047855999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1579.290000</v>
+        <v>1579.29</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1049.170000</v>
+        <v>-1049.17</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>36185.450051</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.051514</v>
+        <v>10.051513999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1993.150000</v>
+        <v>1993.15</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1608.760000</v>
+        <v>-1608.76</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>36012.629000</v>
+        <v>36012.629000000001</v>
       </c>
       <c r="B25" s="1">
         <v>10.003508</v>
       </c>
       <c r="C25" s="1">
-        <v>909.510000</v>
+        <v>909.51</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.160000</v>
+        <v>-198.16</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>36023.116411</v>
+        <v>36023.116411000003</v>
       </c>
       <c r="G25" s="1">
         <v>10.006421</v>
       </c>
       <c r="H25" s="1">
-        <v>926.536000</v>
+        <v>926.53599999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.629000</v>
+        <v>-167.62899999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>36033.309724</v>
+        <v>36033.309723999999</v>
       </c>
       <c r="L25" s="1">
-        <v>10.009253</v>
+        <v>10.009252999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>949.162000</v>
+        <v>949.16200000000003</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.144000</v>
+        <v>-120.14400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>36043.562530</v>
+        <v>36043.562530000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.012101</v>
+        <v>10.012100999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>955.406000</v>
+        <v>955.40599999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.460000</v>
+        <v>-104.46</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>36053.658065</v>
+        <v>36053.658065000003</v>
       </c>
       <c r="V25" s="1">
-        <v>10.014905</v>
+        <v>10.014905000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>961.827000</v>
+        <v>961.827</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.483100</v>
+        <v>-90.483099999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>36063.971907</v>
+        <v>36063.971906999999</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.017770</v>
+        <v>10.017770000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.935000</v>
+        <v>968.93499999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.639500</v>
+        <v>-80.639499999999998</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>36074.032231</v>
+        <v>36074.032230999997</v>
       </c>
       <c r="AF25" s="1">
         <v>10.020565</v>
       </c>
       <c r="AG25" s="1">
-        <v>973.826000</v>
+        <v>973.82600000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.173700</v>
+        <v>-80.173699999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>36084.274122</v>
+        <v>36084.274122000003</v>
       </c>
       <c r="AK25" s="1">
-        <v>10.023409</v>
+        <v>10.023408999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>981.673000</v>
+        <v>981.673</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.862300</v>
+        <v>-87.862300000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>36095.585882</v>
+        <v>36095.585881999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.026552</v>
+        <v>10.026552000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.753000</v>
+        <v>990.75300000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.824000</v>
+        <v>-102.824</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>36106.687835</v>
+        <v>36106.687834999997</v>
       </c>
       <c r="AU25" s="1">
         <v>10.029636</v>
       </c>
       <c r="AV25" s="1">
-        <v>1002.050000</v>
+        <v>1002.05</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.450000</v>
+        <v>-124.45</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>36117.614482</v>
+        <v>36117.614481999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.032671</v>
+        <v>10.032671000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1011.590000</v>
+        <v>1011.59</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.291000</v>
+        <v>-143.291</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>36128.988002</v>
+        <v>36128.988001999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>10.035830</v>
+        <v>10.035830000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.889000</v>
+        <v>-228.88900000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>36140.147951</v>
+        <v>36140.147950999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.038930</v>
+        <v>10.038930000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.845000</v>
+        <v>-366.84500000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>36150.829794</v>
+        <v>36150.829793999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.041897</v>
+        <v>10.041897000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1267.450000</v>
+        <v>1267.45</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.779000</v>
+        <v>-580.779</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>36161.825133</v>
+        <v>36161.825132999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.044951</v>
+        <v>10.044950999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1416.060000</v>
+        <v>1416.06</v>
       </c>
       <c r="BV25" s="1">
-        <v>-809.433000</v>
+        <v>-809.43299999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>36172.736601</v>
+        <v>36172.736600999997</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.047982</v>
+        <v>10.047981999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1579.380000</v>
+        <v>1579.38</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1049.300000</v>
+        <v>-1049.3</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>36186.299238</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.051750</v>
+        <v>10.05175</v>
       </c>
       <c r="CE25" s="1">
-        <v>1994.540000</v>
+        <v>1994.54</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1609.860000</v>
+        <v>-1609.86</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>36012.976201</v>
+        <v>36012.976200999998</v>
       </c>
       <c r="B26" s="1">
         <v>10.003605</v>
       </c>
       <c r="C26" s="1">
-        <v>909.429000</v>
+        <v>909.42899999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.080000</v>
+        <v>-198.08</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>36023.461627</v>
+        <v>36023.461626999997</v>
       </c>
       <c r="G26" s="1">
-        <v>10.006517</v>
+        <v>10.006517000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>926.760000</v>
+        <v>926.76</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.205000</v>
+        <v>-168.20500000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>36033.655108</v>
+        <v>36033.655107999999</v>
       </c>
       <c r="L26" s="1">
         <v>10.009349</v>
       </c>
       <c r="M26" s="1">
-        <v>948.941000</v>
+        <v>948.94100000000003</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.079000</v>
+        <v>-120.07899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>36043.975663</v>
+        <v>36043.975662999997</v>
       </c>
       <c r="Q26" s="1">
-        <v>10.012215</v>
+        <v>10.012214999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>955.389000</v>
+        <v>955.38900000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.437000</v>
+        <v>-104.437</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>36054.086609</v>
+        <v>36054.086608999998</v>
       </c>
       <c r="V26" s="1">
         <v>10.015024</v>
       </c>
       <c r="W26" s="1">
-        <v>961.787000</v>
+        <v>961.78700000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.475900</v>
+        <v>-90.475899999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>36064.257604</v>
+        <v>36064.257603999999</v>
       </c>
       <c r="AA26" s="1">
         <v>10.017849</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.910000</v>
+        <v>968.91</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.739000</v>
+        <v>-80.739000000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>36074.374005</v>
+        <v>36074.374004999998</v>
       </c>
       <c r="AF26" s="1">
         <v>10.020659</v>
       </c>
       <c r="AG26" s="1">
-        <v>973.850000</v>
+        <v>973.85</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.191200</v>
+        <v>-80.191199999999995</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>36084.625812</v>
+        <v>36084.625811999998</v>
       </c>
       <c r="AK26" s="1">
         <v>10.023507</v>
       </c>
       <c r="AL26" s="1">
-        <v>981.667000</v>
+        <v>981.66700000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.881400</v>
+        <v>-87.881399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>36095.945481</v>
+        <v>36095.945481000002</v>
       </c>
       <c r="AP26" s="1">
         <v>10.026652</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.751000</v>
+        <v>990.75099999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.804000</v>
+        <v>-102.804</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>36107.052426</v>
+        <v>36107.052426000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>10.029737</v>
+        <v>10.029737000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1002.060000</v>
+        <v>1002.06</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.452000</v>
+        <v>-124.452</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>36118.329932</v>
+        <v>36118.329932000001</v>
       </c>
       <c r="AZ26" s="1">
         <v>10.032869</v>
       </c>
       <c r="BA26" s="1">
-        <v>1011.590000</v>
+        <v>1011.59</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.287000</v>
+        <v>-143.28700000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>36129.375864</v>
+        <v>36129.375864000001</v>
       </c>
       <c r="BE26" s="1">
         <v>10.035938</v>
       </c>
       <c r="BF26" s="1">
-        <v>1056.570000</v>
+        <v>1056.57</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.879000</v>
+        <v>-228.87899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>36140.521452</v>
+        <v>36140.521452000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>10.039034</v>
+        <v>10.039033999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.740000</v>
+        <v>1135.74</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.849000</v>
+        <v>-366.84899999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>36151.246432</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.042013</v>
+        <v>10.042013000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1267.420000</v>
+        <v>1267.42</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.757000</v>
+        <v>-580.75699999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>36162.565169</v>
+        <v>36162.565169000001</v>
       </c>
       <c r="BT26" s="1">
         <v>10.045157</v>
       </c>
       <c r="BU26" s="1">
-        <v>1416.130000</v>
+        <v>1416.13</v>
       </c>
       <c r="BV26" s="1">
-        <v>-809.470000</v>
+        <v>-809.47</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>36173.490018</v>
+        <v>36173.490017999997</v>
       </c>
       <c r="BY26" s="1">
         <v>10.048192</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1579.390000</v>
+        <v>1579.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1049.230000</v>
+        <v>-1049.23</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>36186.529382</v>
+        <v>36186.529382000001</v>
       </c>
       <c r="CD26" s="1">
         <v>10.051814</v>
       </c>
       <c r="CE26" s="1">
-        <v>1994.310000</v>
+        <v>1994.31</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1609.530000</v>
+        <v>-1609.53</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>